--- a/AAII_Financials/Yearly/AM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>AM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,89 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>792600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,12 +772,15 @@
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,12 +805,15 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>762000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>95500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,25 +970,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1191100</v>
+      </c>
+      <c r="E17" s="3">
         <v>43900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>8</v>
@@ -971,26 +997,29 @@
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-41100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-398500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
@@ -1001,12 +1030,15 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,22 +1051,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>69700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>16900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1300</v>
+      <c r="D20" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
@@ -1045,42 +1078,48 @@
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>-305000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,69 +1147,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-457600</v>
+      </c>
+      <c r="E23" s="3">
         <v>98900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="E24" s="3">
         <v>32300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-355100</v>
+      </c>
+      <c r="E26" s="3">
         <v>66600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="E27" s="3">
         <v>61400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,23 +1444,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-69700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
+      <c r="D32" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
@@ -1405,42 +1474,48 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="E33" s="3">
         <v>61400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="E35" s="3">
         <v>61400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,26 +1710,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1648,12 +1740,15 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,18 +1776,21 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1711,57 +1809,63 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>709600</v>
+      </c>
+      <c r="E47" s="3">
         <v>43500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1771,69 +1875,78 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>3273400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>31700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2073600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,18 +2007,21 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1918,12 +2037,15 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6282900</v>
+      </c>
+      <c r="E54" s="3">
         <v>47700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>31800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,17 +2139,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2036,12 +2166,15 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2069,74 +2202,83 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E59" s="3">
         <v>16100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2892200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2157,29 +2299,32 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>5100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3139500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-341600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3143400</v>
+      </c>
+      <c r="E76" s="3">
         <v>30900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>29000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="E81" s="3">
         <v>61400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>152500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>622400</v>
+      </c>
+      <c r="E89" s="3">
         <v>83500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-393000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-525700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,20 +3293,21 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-496200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-86500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,39 +3422,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>16400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3240,37 +3488,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>AM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,68 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900700</v>
+      </c>
+      <c r="E8" s="3">
         <v>792600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
@@ -739,15 +742,18 @@
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,12 +781,15 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,12 +817,15 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,18 +908,21 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>673600</v>
+      </c>
+      <c r="E14" s="3">
         <v>762000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -919,24 +938,27 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E15" s="3">
         <v>95500</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -952,15 +974,18 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,28 +996,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1018400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1191100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
@@ -1000,21 +1026,24 @@
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-398500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1033,12 +1062,15 @@
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,17 +1084,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-59100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1081,21 +1114,24 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-305000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1111,38 +1147,41 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>147000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1150,75 +1189,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-178200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-457600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>98900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-102500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-122500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-355100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-355600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,18 +1513,21 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E32" s="3">
         <v>59100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1477,45 +1546,51 @@
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-355600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>61400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-355600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>61400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,29 +1802,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E43" s="3">
         <v>105600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1743,12 +1835,15 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,21 +1874,24 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,63 +1910,69 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E46" s="3">
         <v>108600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>722500</v>
+      </c>
+      <c r="E47" s="3">
         <v>709600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1878,18 +1982,21 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3254000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3273400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1905,24 +2012,27 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>31700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1427400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2073600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1938,15 +2048,18 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,21 +2126,24 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E52" s="3">
         <v>117700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2040,12 +2159,15 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5610900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6282900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>31800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,20 +2269,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2169,12 +2299,15 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2205,84 +2338,93 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E59" s="3">
         <v>232300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E60" s="3">
         <v>242100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3091600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2892200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2302,32 +2444,35 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2337,9 +2482,12 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3192600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3139500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,18 +2786,21 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-464100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-341600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2643,15 +2816,18 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2418300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3143400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>29000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-355600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>61400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,17 +3098,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E83" s="3">
         <v>152500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2927,15 +3125,18 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>753400</v>
+      </c>
+      <c r="E89" s="3">
         <v>622400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,17 +3366,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-393000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3173,15 +3393,18 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,18 +3471,21 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-525700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3272,15 +3501,18 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,23 +3526,24 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-590200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-496200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-86500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,42 +3667,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-534700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-98300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>16400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3491,40 +3739,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>AM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>898200</v>
+      </c>
+      <c r="E8" s="3">
         <v>900700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>792600</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
@@ -745,15 +748,18 @@
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,12 +790,15 @@
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,12 +829,15 @@
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,21 +927,24 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E14" s="3">
         <v>673600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>762000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -941,15 +960,18 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,11 +979,11 @@
         <v>108800</v>
       </c>
       <c r="E15" s="3">
+        <v>108800</v>
+      </c>
+      <c r="F15" s="3">
         <v>95500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -977,15 +999,18 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,31 +1022,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1018400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1191100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
@@ -1029,24 +1055,27 @@
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>533600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-117600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-398500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1065,12 +1094,15 @@
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,20 +1117,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E20" s="3">
         <v>86400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-59100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1117,24 +1150,27 @@
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>803500</v>
+      </c>
+      <c r="E21" s="3">
         <v>148300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-305000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,24 +1186,27 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E22" s="3">
         <v>147000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1183,8 +1222,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1192,81 +1231,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>448700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-178200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-457600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>98900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-55700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-102500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-122500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-355100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-123100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-355600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,21 +1582,24 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-86400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>59100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1549,48 +1618,54 @@
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-123100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-355600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>61400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-123100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-355600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>61400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1819,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,32 +1894,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E43" s="3">
         <v>91800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>105600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1838,12 +1930,15 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,24 +1972,27 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1913,69 +2011,75 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E46" s="3">
         <v>93900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E47" s="3">
         <v>722500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>709600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1985,21 +2089,24 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3394700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3254000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3273400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2015,27 +2122,30 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>31700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1356800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1427400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2073600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2051,15 +2161,18 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,24 +2245,27 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E52" s="3">
         <v>113000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2162,12 +2281,15 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5544000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5610900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6282900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>31800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,23 +2399,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2302,12 +2432,15 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2341,93 +2474,102 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E59" s="3">
         <v>80600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>232300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E60" s="3">
         <v>94000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>242100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3122900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3091600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2892200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2447,35 +2589,38 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2485,9 +2630,12 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3257300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3192600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3139500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,21 +2959,24 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-464100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-341600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2819,15 +2992,18 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2286700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2418300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3143400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>29000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-123100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-355600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>61400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,8 +3296,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3108,11 +3306,11 @@
         <v>179500</v>
       </c>
       <c r="E83" s="3">
+        <v>179500</v>
+      </c>
+      <c r="F83" s="3">
         <v>152500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3128,15 +3326,18 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>709800</v>
+      </c>
+      <c r="E89" s="3">
         <v>753400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>622400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,20 +3586,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-196700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-393000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3396,15 +3616,18 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,21 +3700,24 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-233200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-219200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-525700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3504,15 +3733,18 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,26 +3759,27 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-471700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-590200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-496200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-86500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,45 +3912,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-477200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-534700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-98300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>16400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3742,9 +3990,12 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3752,33 +4003,36 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>AM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>920000</v>
+      </c>
+      <c r="E8" s="3">
         <v>898200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>792600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -751,15 +754,18 @@
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,12 +799,15 @@
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,12 +841,15 @@
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,24 +946,27 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>26800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>673600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>762000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
@@ -963,30 +982,33 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>108800</v>
+        <v>131800</v>
       </c>
       <c r="E15" s="3">
         <v>108800</v>
       </c>
       <c r="F15" s="3">
+        <v>108800</v>
+      </c>
+      <c r="G15" s="3">
         <v>95500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1002,15 +1024,18 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,34 +1048,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E17" s="3">
         <v>364600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1018400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1191100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
@@ -1058,27 +1084,30 @@
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>539500</v>
+      </c>
+      <c r="E18" s="3">
         <v>533600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-117600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-398500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1097,12 +1126,15 @@
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,23 +1150,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E20" s="3">
         <v>90500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>86400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1153,27 +1186,30 @@
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>836100</v>
+      </c>
+      <c r="E21" s="3">
         <v>803500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>148300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-305000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,27 +1225,30 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E22" s="3">
         <v>175300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>147000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1264,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1234,87 +1273,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>443700</v>
+      </c>
+      <c r="E23" s="3">
         <v>448700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-178200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-457600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E24" s="3">
         <v>117100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-55700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-102500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E26" s="3">
         <v>331600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-122500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-355100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>66600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E27" s="3">
         <v>331100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-123100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-355600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>61400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,24 +1651,27 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-90500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-86400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1621,51 +1690,57 @@
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E33" s="3">
         <v>331100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-123100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-355600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>61400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E35" s="3">
         <v>331100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-123100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-355600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>61400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1897,35 +1986,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E43" s="3">
         <v>82900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>91800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -1933,12 +2025,15 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,27 +2070,30 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2014,75 +2112,81 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E46" s="3">
         <v>83800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>652800</v>
+      </c>
+      <c r="E47" s="3">
         <v>696000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>722500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>709600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2092,24 +2196,27 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3751400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3394700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3254000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3273400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2125,30 +2232,33 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>31700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1286100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1356800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1427400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2073600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,15 +2274,18 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,27 +2364,30 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>113000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2284,12 +2403,15 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5791300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5544000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5610900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6282900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>31800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,26 +2529,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E57" s="3">
         <v>28500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2435,12 +2565,15 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2477,102 +2610,111 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E59" s="3">
         <v>85500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>232300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E60" s="3">
         <v>114000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>242100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3361300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3122900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3091600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2892200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2592,38 +2734,41 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E62" s="3">
         <v>20400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2633,9 +2778,12 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3599000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3257300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3139500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,24 +3132,27 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-132500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-464100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-341600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2995,15 +3168,18 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2192300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2286700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2418300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3143400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>29000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E81" s="3">
         <v>331100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-123100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-355600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>61400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,23 +3494,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179500</v>
+        <v>202400</v>
       </c>
       <c r="E83" s="3">
         <v>179500</v>
       </c>
       <c r="F83" s="3">
+        <v>179500</v>
+      </c>
+      <c r="G83" s="3">
         <v>152500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,15 +3527,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>699600</v>
+      </c>
+      <c r="E89" s="3">
         <v>709800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>753400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>622400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>83500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,23 +3806,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-515700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-232800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-196700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-393000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3619,15 +3839,18 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-15800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,24 +3929,27 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-493800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-233200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-219200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-525700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3736,15 +3965,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,29 +3992,30 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-471700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-590200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-496200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-86500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-31700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-205800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-477200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-534700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-98300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-86700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>16400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3993,46 +4241,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-600</v>
       </c>
       <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
